--- a/Scatter/Dealer FDC address/Map_NFS_BRD.xlsx
+++ b/Scatter/Dealer FDC address/Map_NFS_BRD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAY4SGH\Desktop\中台\SCNcase\BSS&amp;EXTRA\map solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/wzh8sgh_bosch_com/Documents/requirement/Scatter/Dealer FDC address/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40A09DC-0FE0-4B28-AFCD-1600458E7158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C40A09DC-0FE0-4B28-AFCD-1600458E7158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23EC8CA-42F3-4910-A760-9FB04FDDFFD2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BF3BD095-7E5B-45ED-A845-CA5D84117DB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF3BD095-7E5B-45ED-A845-CA5D84117DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="销售手动调节维修站与前置仓归属关系" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="64">
   <si>
     <t>易加网账号</t>
   </si>
@@ -226,18 +226,28 @@
   </si>
   <si>
     <t>GBB_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discription </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -268,10 +278,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,20 +598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68BF841-212C-463A-A618-131F05A05278}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -610,46 +620,46 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -858,6 +868,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -867,13 +878,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B6AE52-FEE4-4939-AA61-F8B3841DB07C}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,46 +896,46 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1350,6 +1364,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>